--- a/config_aomi/game_activity_config.xlsx
+++ b/config_aomi/game_activity_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_ios提审\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_aomi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -648,7 +648,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -813,7 +813,7 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="10"/>
@@ -1128,19 +1128,37 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="2" master=""/>
   <rangeList sheetStid="3" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -1148,56 +1166,38 @@
 </settings>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>